--- a/DB_Hall_attr.xlsx
+++ b/DB_Hall_attr.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\document\db_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{672C72DC-1454-4556-A8FC-A7D67464A3BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26980" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Hall_attr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -168,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +327,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -755,54 +760,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="无色" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="说明文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,7 +868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -912,7 +920,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1106,415 +1114,423 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>71</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>70</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>60050</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>71</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>70</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>60050</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>71</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>70</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>60050</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>71</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>70</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>60050</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>70</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>69</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>60050</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>70</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>69</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>60050</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>72</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>71</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>60050</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>72</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>71</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>60050</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>72</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>71</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>60050</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>72</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>71</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>60050</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>